--- a/chair_all.xlsx
+++ b/chair_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C05B5B-8A5B-4E01-9EFD-709F5B22B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4D5D7-292A-48B1-9916-5C2D152CE093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,14 +689,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本革A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本革B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>材質</t>
     <rPh sb="0" eb="2">
       <t>ザイシツ</t>
@@ -934,6 +926,14 @@
   </si>
   <si>
     <t>アームチェア_ｺﾝﾄﾛｸﾄ</t>
+  </si>
+  <si>
+    <t>本革B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本革D</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1333,19 +1333,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="3"/>
-    <col min="5" max="9" width="8.7265625" style="5"/>
-    <col min="10" max="10" width="53.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="3"/>
+    <col min="5" max="9" width="8.77734375" style="5"/>
+    <col min="10" max="10" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1371,16 +1371,16 @@
         <v>216</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1397,25 +1397,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F2" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H2" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I2" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1432,19 +1432,19 @@
         <v>7</v>
       </c>
       <c r="E3" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F3" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G3" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H3" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I3" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>8</v>
@@ -1465,19 +1465,19 @@
         <v>7</v>
       </c>
       <c r="E4" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F4" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G4" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H4" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I4" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>8</v>
@@ -1498,19 +1498,19 @@
         <v>7</v>
       </c>
       <c r="E5" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F5" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G5" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H5" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I5" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>8</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1531,19 +1531,19 @@
         <v>7</v>
       </c>
       <c r="E6" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F6" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G6" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H6" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I6" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>8</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1564,19 +1564,19 @@
         <v>7</v>
       </c>
       <c r="E7" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F7" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G7" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H7" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I7" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>8</v>
@@ -1588,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1597,25 +1597,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F8" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G8" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H8" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I8" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1632,19 +1632,19 @@
         <v>7</v>
       </c>
       <c r="E9" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F9" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H9" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I9" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>8</v>
@@ -1665,19 +1665,19 @@
         <v>7</v>
       </c>
       <c r="E10" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F10" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H10" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I10" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>8</v>
@@ -1689,7 +1689,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -1698,19 +1698,19 @@
         <v>7</v>
       </c>
       <c r="E11" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F11" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H11" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I11" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>8</v>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1731,19 +1731,19 @@
         <v>7</v>
       </c>
       <c r="E12" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F12" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H12" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I12" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>8</v>
@@ -1764,19 +1764,19 @@
         <v>7</v>
       </c>
       <c r="E13" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F13" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H13" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I13" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>8</v>
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -1797,19 +1797,19 @@
         <v>7</v>
       </c>
       <c r="E14" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F14" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H14" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I14" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>8</v>
@@ -1821,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -1830,19 +1830,19 @@
         <v>7</v>
       </c>
       <c r="E15" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F15" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G15" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H15" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I15" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>8</v>
@@ -1854,7 +1854,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -1863,19 +1863,19 @@
         <v>7</v>
       </c>
       <c r="E16" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F16" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H16" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I16" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>8</v>
@@ -1887,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -1896,19 +1896,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F17" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G17" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H17" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I17" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>8</v>
@@ -1929,19 +1929,19 @@
         <v>7</v>
       </c>
       <c r="E18" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F18" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G18" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H18" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I18" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>8</v>
@@ -1962,19 +1962,19 @@
         <v>7</v>
       </c>
       <c r="E19" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F19" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G19" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H19" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I19" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>8</v>
@@ -1986,7 +1986,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -1995,19 +1995,19 @@
         <v>7</v>
       </c>
       <c r="E20" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F20" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G20" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H20" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I20" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>8</v>
@@ -2028,19 +2028,19 @@
         <v>7</v>
       </c>
       <c r="E21" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F21" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G21" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H21" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I21" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>8</v>
@@ -2052,7 +2052,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
@@ -2061,25 +2061,25 @@
         <v>7</v>
       </c>
       <c r="E22" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F22" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G22" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H22" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I22" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2096,19 +2096,19 @@
         <v>7</v>
       </c>
       <c r="E23" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F23" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H23" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I23" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>8</v>
@@ -2120,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -2129,19 +2129,19 @@
         <v>7</v>
       </c>
       <c r="E24" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F24" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G24" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H24" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I24" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>8</v>
@@ -2162,25 +2162,25 @@
         <v>7</v>
       </c>
       <c r="E25" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F25" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G25" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H25" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I25" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2197,25 +2197,25 @@
         <v>7</v>
       </c>
       <c r="E26" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F26" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G26" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H26" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I26" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2232,25 +2232,25 @@
         <v>7</v>
       </c>
       <c r="E27" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F27" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H27" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I27" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2258,7 +2258,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
@@ -2267,25 +2267,25 @@
         <v>7</v>
       </c>
       <c r="E28" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="F28" s="8">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G28" s="8">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="H28" s="8">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="I28" s="8">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2302,22 +2302,22 @@
         <v>39</v>
       </c>
       <c r="E29" s="8">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="F29" s="8">
-        <v>27500</v>
+        <v>31000</v>
       </c>
       <c r="G29" s="8">
-        <v>32500</v>
+        <v>35000</v>
       </c>
       <c r="H29" s="8">
-        <v>55000</v>
+        <v>62000</v>
       </c>
       <c r="I29" s="8">
-        <v>62500</v>
+        <v>72000</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -2335,22 +2335,22 @@
         <v>41</v>
       </c>
       <c r="E30" s="8">
-        <v>54000</v>
+        <v>58000</v>
       </c>
       <c r="F30" s="8">
-        <v>57500</v>
+        <v>62000</v>
       </c>
       <c r="G30" s="8">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="H30" s="8">
-        <v>96000</v>
+        <v>93000</v>
       </c>
       <c r="I30" s="8">
-        <v>106500</v>
+        <v>103000</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -2359,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>38</v>
@@ -2368,22 +2368,22 @@
         <v>42</v>
       </c>
       <c r="E31" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F31" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G31" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H31" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I31" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -2401,22 +2401,22 @@
         <v>42</v>
       </c>
       <c r="E32" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F32" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G32" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H32" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I32" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2434,22 +2434,22 @@
         <v>42</v>
       </c>
       <c r="E33" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F33" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G33" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H33" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I33" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K33" s="6"/>
     </row>
@@ -2458,7 +2458,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>38</v>
@@ -2467,22 +2467,22 @@
         <v>42</v>
       </c>
       <c r="E34" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F34" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G34" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H34" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I34" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -2500,22 +2500,22 @@
         <v>42</v>
       </c>
       <c r="E35" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F35" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G35" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H35" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I35" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K35" s="6"/>
     </row>
@@ -2533,22 +2533,22 @@
         <v>42</v>
       </c>
       <c r="E36" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F36" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G36" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H36" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I36" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K36" s="6"/>
     </row>
@@ -2566,22 +2566,22 @@
         <v>42</v>
       </c>
       <c r="E37" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F37" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G37" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H37" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I37" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K37" s="6"/>
     </row>
@@ -2599,22 +2599,22 @@
         <v>42</v>
       </c>
       <c r="E38" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F38" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G38" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H38" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I38" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K38" s="6"/>
     </row>
@@ -2623,7 +2623,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>38</v>
@@ -2632,22 +2632,22 @@
         <v>42</v>
       </c>
       <c r="E39" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F39" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G39" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H39" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I39" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K39" s="6"/>
     </row>
@@ -2656,7 +2656,7 @@
         <v>57</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>38</v>
@@ -2665,22 +2665,22 @@
         <v>42</v>
       </c>
       <c r="E40" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F40" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G40" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H40" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I40" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K40" s="6"/>
     </row>
@@ -2698,22 +2698,22 @@
         <v>42</v>
       </c>
       <c r="E41" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F41" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G41" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H41" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I41" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K41" s="6"/>
     </row>
@@ -2722,7 +2722,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>38</v>
@@ -2731,22 +2731,22 @@
         <v>42</v>
       </c>
       <c r="E42" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F42" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G42" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H42" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I42" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K42" s="6"/>
     </row>
@@ -2755,7 +2755,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>38</v>
@@ -2764,22 +2764,22 @@
         <v>42</v>
       </c>
       <c r="E43" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F43" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G43" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H43" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I43" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K43" s="6"/>
     </row>
@@ -2788,7 +2788,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>38</v>
@@ -2797,22 +2797,22 @@
         <v>42</v>
       </c>
       <c r="E44" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F44" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G44" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H44" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I44" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K44" s="6"/>
     </row>
@@ -2830,22 +2830,22 @@
         <v>42</v>
       </c>
       <c r="E45" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F45" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G45" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H45" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I45" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K45" s="6"/>
     </row>
@@ -2863,22 +2863,22 @@
         <v>42</v>
       </c>
       <c r="E46" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F46" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G46" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H46" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I46" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K46" s="6"/>
     </row>
@@ -2896,22 +2896,22 @@
         <v>42</v>
       </c>
       <c r="E47" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F47" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G47" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H47" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I47" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K47" s="6"/>
     </row>
@@ -2929,22 +2929,22 @@
         <v>42</v>
       </c>
       <c r="E48" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F48" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G48" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H48" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I48" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K48" s="6"/>
     </row>
@@ -2953,7 +2953,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>38</v>
@@ -2962,22 +2962,22 @@
         <v>42</v>
       </c>
       <c r="E49" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F49" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G49" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H49" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I49" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K49" s="6"/>
     </row>
@@ -2986,7 +2986,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>38</v>
@@ -2995,22 +2995,22 @@
         <v>42</v>
       </c>
       <c r="E50" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F50" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G50" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H50" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I50" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K50" s="6"/>
     </row>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>38</v>
@@ -3028,22 +3028,22 @@
         <v>42</v>
       </c>
       <c r="E51" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F51" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G51" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H51" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I51" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K51" s="6"/>
     </row>
@@ -3052,7 +3052,7 @@
         <v>68</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>38</v>
@@ -3061,22 +3061,22 @@
         <v>42</v>
       </c>
       <c r="E52" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F52" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G52" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H52" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I52" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K52" s="6"/>
     </row>
@@ -3085,7 +3085,7 @@
         <v>69</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>38</v>
@@ -3094,22 +3094,22 @@
         <v>42</v>
       </c>
       <c r="E53" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F53" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G53" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H53" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I53" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K53" s="6"/>
     </row>
@@ -3118,7 +3118,7 @@
         <v>70</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>38</v>
@@ -3127,22 +3127,22 @@
         <v>42</v>
       </c>
       <c r="E54" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F54" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G54" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H54" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I54" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K54" s="6"/>
     </row>
@@ -3151,7 +3151,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>38</v>
@@ -3160,22 +3160,22 @@
         <v>42</v>
       </c>
       <c r="E55" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F55" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G55" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H55" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I55" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K55" s="6"/>
     </row>
@@ -3193,22 +3193,22 @@
         <v>42</v>
       </c>
       <c r="E56" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F56" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G56" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H56" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I56" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K56" s="6"/>
     </row>
@@ -3226,22 +3226,22 @@
         <v>42</v>
       </c>
       <c r="E57" s="8">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F57" s="8">
-        <v>44500</v>
+        <v>49000</v>
       </c>
       <c r="G57" s="8">
-        <v>49500</v>
+        <v>53000</v>
       </c>
       <c r="H57" s="8">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="I57" s="8">
-        <v>79500</v>
+        <v>90000</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K57" s="6"/>
     </row>
@@ -3259,22 +3259,22 @@
         <v>76</v>
       </c>
       <c r="E58" s="8">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="F58" s="8">
-        <v>32500</v>
+        <v>36000</v>
       </c>
       <c r="G58" s="8">
-        <v>37500</v>
+        <v>40000</v>
       </c>
       <c r="H58" s="8">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="I58" s="8">
-        <v>67500</v>
+        <v>77000</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K58" s="6"/>
     </row>
@@ -3292,25 +3292,25 @@
         <v>76</v>
       </c>
       <c r="E59" s="8">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="F59" s="8">
-        <v>32500</v>
+        <v>36000</v>
       </c>
       <c r="G59" s="8">
-        <v>37500</v>
+        <v>40000</v>
       </c>
       <c r="H59" s="8">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="I59" s="8">
-        <v>67500</v>
+        <v>77000</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -3327,22 +3327,22 @@
         <v>76</v>
       </c>
       <c r="E60" s="8">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="F60" s="8">
-        <v>32500</v>
+        <v>36000</v>
       </c>
       <c r="G60" s="8">
-        <v>37500</v>
+        <v>40000</v>
       </c>
       <c r="H60" s="8">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="I60" s="8">
-        <v>67500</v>
+        <v>77000</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K60" s="6"/>
     </row>
@@ -3360,22 +3360,22 @@
         <v>76</v>
       </c>
       <c r="E61" s="8">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="F61" s="8">
-        <v>32500</v>
+        <v>36000</v>
       </c>
       <c r="G61" s="8">
-        <v>37500</v>
+        <v>40000</v>
       </c>
       <c r="H61" s="8">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="I61" s="8">
-        <v>67500</v>
+        <v>77000</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K61" s="6"/>
     </row>
@@ -3393,19 +3393,19 @@
         <v>82</v>
       </c>
       <c r="E62" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F62" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G62" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H62" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I62" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>83</v>
@@ -3426,19 +3426,19 @@
         <v>82</v>
       </c>
       <c r="E63" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F63" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G63" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H63" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I63" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>83</v>
@@ -3459,19 +3459,19 @@
         <v>82</v>
       </c>
       <c r="E64" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F64" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G64" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H64" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I64" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>83</v>
@@ -3492,19 +3492,19 @@
         <v>82</v>
       </c>
       <c r="E65" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F65" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G65" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H65" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I65" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>83</v>
@@ -3525,19 +3525,19 @@
         <v>82</v>
       </c>
       <c r="E66" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F66" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G66" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H66" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I66" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>83</v>
@@ -3549,7 +3549,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>6</v>
@@ -3558,19 +3558,19 @@
         <v>82</v>
       </c>
       <c r="E67" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F67" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G67" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H67" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I67" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>83</v>
@@ -3582,7 +3582,7 @@
         <v>57</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>6</v>
@@ -3591,25 +3591,25 @@
         <v>82</v>
       </c>
       <c r="E68" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F68" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G68" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H68" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I68" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>83</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3626,19 +3626,19 @@
         <v>82</v>
       </c>
       <c r="E69" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F69" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G69" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H69" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I69" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>83</v>
@@ -3659,25 +3659,25 @@
         <v>82</v>
       </c>
       <c r="E70" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F70" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G70" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H70" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I70" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J70" s="6" t="s">
         <v>83</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3694,19 +3694,19 @@
         <v>82</v>
       </c>
       <c r="E71" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F71" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G71" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H71" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I71" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>83</v>
@@ -3727,25 +3727,25 @@
         <v>82</v>
       </c>
       <c r="E72" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F72" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G72" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H72" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I72" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>83</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>6</v>
@@ -3762,19 +3762,19 @@
         <v>82</v>
       </c>
       <c r="E73" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F73" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G73" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H73" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I73" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>83</v>
@@ -3795,19 +3795,19 @@
         <v>82</v>
       </c>
       <c r="E74" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F74" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G74" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H74" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I74" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>83</v>
@@ -3819,7 +3819,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>6</v>
@@ -3828,19 +3828,19 @@
         <v>82</v>
       </c>
       <c r="E75" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F75" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G75" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H75" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I75" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>83</v>
@@ -3861,19 +3861,19 @@
         <v>82</v>
       </c>
       <c r="E76" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F76" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G76" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H76" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I76" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>83</v>
@@ -3885,7 +3885,7 @@
         <v>105</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>6</v>
@@ -3894,19 +3894,19 @@
         <v>82</v>
       </c>
       <c r="E77" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F77" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G77" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H77" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I77" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>83</v>
@@ -3918,7 +3918,7 @@
         <v>106</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>6</v>
@@ -3927,19 +3927,19 @@
         <v>82</v>
       </c>
       <c r="E78" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F78" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G78" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H78" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I78" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>83</v>
@@ -3951,7 +3951,7 @@
         <v>106</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>6</v>
@@ -3960,19 +3960,19 @@
         <v>82</v>
       </c>
       <c r="E79" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F79" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G79" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H79" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I79" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J79" s="6" t="s">
         <v>83</v>
@@ -3984,7 +3984,7 @@
         <v>107</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>6</v>
@@ -3993,19 +3993,19 @@
         <v>82</v>
       </c>
       <c r="E80" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F80" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G80" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H80" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I80" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>83</v>
@@ -4026,19 +4026,19 @@
         <v>82</v>
       </c>
       <c r="E81" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F81" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G81" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H81" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I81" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>83</v>
@@ -4059,19 +4059,19 @@
         <v>82</v>
       </c>
       <c r="E82" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F82" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G82" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H82" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I82" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>83</v>
@@ -4092,19 +4092,19 @@
         <v>82</v>
       </c>
       <c r="E83" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F83" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G83" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H83" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I83" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>83</v>
@@ -4116,7 +4116,7 @@
         <v>69</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>6</v>
@@ -4125,19 +4125,19 @@
         <v>82</v>
       </c>
       <c r="E84" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F84" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G84" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H84" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I84" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>83</v>
@@ -4149,7 +4149,7 @@
         <v>112</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>6</v>
@@ -4158,19 +4158,19 @@
         <v>82</v>
       </c>
       <c r="E85" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F85" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G85" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H85" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I85" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>83</v>
@@ -4191,19 +4191,19 @@
         <v>82</v>
       </c>
       <c r="E86" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F86" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G86" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H86" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I86" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>83</v>
@@ -4224,19 +4224,19 @@
         <v>82</v>
       </c>
       <c r="E87" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F87" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G87" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H87" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I87" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>83</v>
@@ -4257,19 +4257,19 @@
         <v>82</v>
       </c>
       <c r="E88" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F88" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G88" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H88" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I88" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>83</v>
@@ -4290,19 +4290,19 @@
         <v>82</v>
       </c>
       <c r="E89" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F89" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G89" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H89" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I89" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>83</v>
@@ -4314,7 +4314,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>6</v>
@@ -4323,19 +4323,19 @@
         <v>82</v>
       </c>
       <c r="E90" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F90" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G90" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H90" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I90" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>83</v>
@@ -4356,19 +4356,19 @@
         <v>82</v>
       </c>
       <c r="E91" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F91" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G91" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H91" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I91" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>83</v>
@@ -4389,19 +4389,19 @@
         <v>82</v>
       </c>
       <c r="E92" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F92" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G92" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H92" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I92" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J92" s="6" t="s">
         <v>83</v>
@@ -4413,7 +4413,7 @@
         <v>121</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>6</v>
@@ -4422,19 +4422,19 @@
         <v>82</v>
       </c>
       <c r="E93" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F93" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G93" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H93" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I93" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>83</v>
@@ -4455,19 +4455,19 @@
         <v>82</v>
       </c>
       <c r="E94" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F94" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G94" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H94" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I94" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>83</v>
@@ -4488,19 +4488,19 @@
         <v>82</v>
       </c>
       <c r="E95" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F95" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G95" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H95" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I95" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>83</v>
@@ -4521,19 +4521,19 @@
         <v>82</v>
       </c>
       <c r="E96" s="8">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="F96" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G96" s="8">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="H96" s="8">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="I96" s="8">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>83</v>
@@ -4554,22 +4554,22 @@
         <v>130</v>
       </c>
       <c r="E97" s="8">
-        <v>58000</v>
+        <v>63000</v>
       </c>
       <c r="F97" s="8">
-        <v>60500</v>
+        <v>67000</v>
       </c>
       <c r="G97" s="8">
-        <v>65500</v>
+        <v>71000</v>
       </c>
       <c r="H97" s="8">
-        <v>88000</v>
+        <v>98000</v>
       </c>
       <c r="I97" s="8">
-        <v>95500</v>
+        <v>108000</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K97" s="6"/>
     </row>
@@ -4587,19 +4587,19 @@
         <v>133</v>
       </c>
       <c r="E98" s="8">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="F98" s="8">
-        <v>35500</v>
+        <v>40000</v>
       </c>
       <c r="G98" s="8">
-        <v>40500</v>
+        <v>44000</v>
       </c>
       <c r="H98" s="8">
-        <v>63000</v>
+        <v>71000</v>
       </c>
       <c r="I98" s="8">
-        <v>70500</v>
+        <v>81000</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>134</v>
@@ -4611,7 +4611,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>135</v>
@@ -4620,13 +4620,13 @@
         <v>136</v>
       </c>
       <c r="E99" s="8">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F99" s="8">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="G99" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="H99" s="8">
         <v>0</v>
@@ -4653,13 +4653,13 @@
         <v>136</v>
       </c>
       <c r="E100" s="8">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F100" s="8">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="G100" s="8">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="H100" s="8">
         <v>0</v>
@@ -4677,7 +4677,7 @@
         <v>140</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>6</v>
@@ -4686,19 +4686,19 @@
         <v>141</v>
       </c>
       <c r="E101" s="8">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F101" s="8">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G101" s="8">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="H101" s="8">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="I101" s="8">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>142</v>
@@ -4719,19 +4719,19 @@
         <v>141</v>
       </c>
       <c r="E102" s="8">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F102" s="8">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G102" s="8">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="H102" s="8">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="I102" s="8">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>142</v>
@@ -4743,7 +4743,7 @@
         <v>36</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>145</v>
@@ -4752,25 +4752,25 @@
         <v>141</v>
       </c>
       <c r="E103" s="8">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F103" s="8">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G103" s="8">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="H103" s="8">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="I103" s="8">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>142</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>146</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>38</v>
@@ -4787,13 +4787,13 @@
         <v>147</v>
       </c>
       <c r="E104" s="8">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="F104" s="8">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="G104" s="8">
-        <v>31500</v>
+        <v>34000</v>
       </c>
       <c r="H104" s="8">
         <v>0</v>
@@ -4802,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -4813,7 +4813,7 @@
         <v>36</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>145</v>
@@ -4822,19 +4822,19 @@
         <v>148</v>
       </c>
       <c r="E105" s="8">
-        <v>21600</v>
+        <v>23400</v>
       </c>
       <c r="F105" s="8">
-        <v>23400</v>
+        <v>27000</v>
       </c>
       <c r="G105" s="8">
-        <v>27000</v>
+        <v>34200</v>
       </c>
       <c r="H105" s="8">
-        <v>43200</v>
+        <v>59400</v>
       </c>
       <c r="I105" s="8">
-        <v>48600</v>
+        <v>66600</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>149</v>
@@ -4846,7 +4846,7 @@
         <v>36</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>145</v>
@@ -4855,19 +4855,19 @@
         <v>150</v>
       </c>
       <c r="E106" s="8">
-        <v>30000</v>
+        <v>32500</v>
       </c>
       <c r="F106" s="8">
-        <v>32500</v>
+        <v>37500</v>
       </c>
       <c r="G106" s="8">
-        <v>37500</v>
+        <v>47500</v>
       </c>
       <c r="H106" s="8">
-        <v>60000</v>
+        <v>82500</v>
       </c>
       <c r="I106" s="8">
-        <v>67500</v>
+        <v>92500</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>151</v>
@@ -4888,19 +4888,19 @@
         <v>0</v>
       </c>
       <c r="E107" s="9">
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="F107" s="9">
-        <v>49000</v>
+        <v>53000</v>
       </c>
       <c r="G107" s="9">
-        <v>58000</v>
+        <v>66000</v>
       </c>
       <c r="H107" s="9">
-        <v>99000</v>
+        <v>187000</v>
       </c>
       <c r="I107" s="9">
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -4910,7 +4910,7 @@
         <v>36</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>153</v>
@@ -4919,19 +4919,19 @@
         <v>0</v>
       </c>
       <c r="E108" s="9">
-        <v>22000</v>
+        <v>23400</v>
       </c>
       <c r="F108" s="9">
-        <v>23800</v>
+        <v>27000</v>
       </c>
       <c r="G108" s="9">
-        <v>27400</v>
+        <v>34200</v>
       </c>
       <c r="H108" s="9">
-        <v>43600</v>
+        <v>59400</v>
       </c>
       <c r="I108" s="9">
-        <v>49000</v>
+        <v>66600</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
@@ -4941,7 +4941,7 @@
         <v>36</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>153</v>
@@ -4950,19 +4950,19 @@
         <v>0</v>
       </c>
       <c r="E109" s="9">
-        <v>35000</v>
+        <v>32500</v>
       </c>
       <c r="F109" s="9">
         <v>37500</v>
       </c>
       <c r="G109" s="9">
-        <v>42500</v>
+        <v>47500</v>
       </c>
       <c r="H109" s="9">
-        <v>65000</v>
+        <v>82500</v>
       </c>
       <c r="I109" s="9">
-        <v>72500</v>
+        <v>92500</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -4972,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>154</v>
@@ -4981,23 +4981,23 @@
         <v>0</v>
       </c>
       <c r="E110" s="9">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="F110" s="9">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="G110" s="9">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="H110" s="9">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="I110" s="9">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -5014,19 +5014,19 @@
         <v>0</v>
       </c>
       <c r="E111" s="9">
-        <v>53000</v>
+        <v>57000</v>
       </c>
       <c r="F111" s="9">
-        <v>58000</v>
+        <v>62000</v>
       </c>
       <c r="G111" s="9">
-        <v>67000</v>
+        <v>76000</v>
       </c>
       <c r="H111" s="9">
-        <v>107000</v>
+        <v>198000</v>
       </c>
       <c r="I111" s="9">
-        <v>121000</v>
+        <v>0</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -5045,19 +5045,19 @@
         <v>0</v>
       </c>
       <c r="E112" s="9">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="F112" s="9">
-        <v>36500</v>
+        <v>39500</v>
       </c>
       <c r="G112" s="9">
-        <v>41500</v>
+        <v>47000</v>
       </c>
       <c r="H112" s="9">
-        <v>64000</v>
+        <v>114500</v>
       </c>
       <c r="I112" s="9">
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
@@ -5076,19 +5076,19 @@
         <v>0</v>
       </c>
       <c r="E113" s="9">
-        <v>68000</v>
+        <v>73000</v>
       </c>
       <c r="F113" s="9">
-        <v>73000</v>
+        <v>78000</v>
       </c>
       <c r="G113" s="9">
-        <v>83000</v>
+        <v>93000</v>
       </c>
       <c r="H113" s="9">
-        <v>128000</v>
+        <v>228000</v>
       </c>
       <c r="I113" s="9">
-        <v>143000</v>
+        <v>0</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -5107,19 +5107,19 @@
         <v>0</v>
       </c>
       <c r="E114" s="9">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="F114" s="9">
-        <v>32500</v>
+        <v>34500</v>
       </c>
       <c r="G114" s="9">
-        <v>37500</v>
+        <v>42000</v>
       </c>
       <c r="H114" s="9">
-        <v>60000</v>
+        <v>109500</v>
       </c>
       <c r="I114" s="9">
-        <v>67500</v>
+        <v>0</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="E115" s="9">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="F115" s="9">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="G115" s="9">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="H115" s="9">
-        <v>44000</v>
+        <v>80000</v>
       </c>
       <c r="I115" s="9">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -5169,19 +5169,19 @@
         <v>0</v>
       </c>
       <c r="E116" s="9">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="F116" s="9">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="G116" s="9">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="H116" s="9">
-        <v>46000</v>
+        <v>82000</v>
       </c>
       <c r="I116" s="9">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
@@ -5191,7 +5191,7 @@
         <v>63</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>38</v>
@@ -5200,19 +5200,19 @@
         <v>0</v>
       </c>
       <c r="E117" s="9">
-        <v>74000</v>
+        <v>80000</v>
       </c>
       <c r="F117" s="9">
-        <v>79000</v>
+        <v>85000</v>
       </c>
       <c r="G117" s="9">
-        <v>88000</v>
+        <v>99000</v>
       </c>
       <c r="H117" s="9">
-        <v>128000</v>
+        <v>221000</v>
       </c>
       <c r="I117" s="9">
-        <v>142000</v>
+        <v>0</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -5231,19 +5231,19 @@
         <v>0</v>
       </c>
       <c r="E118" s="9">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="F118" s="9">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="G118" s="9">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="H118" s="9">
-        <v>44000</v>
+        <v>80000</v>
       </c>
       <c r="I118" s="9">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
@@ -5262,19 +5262,19 @@
         <v>0</v>
       </c>
       <c r="E119" s="9">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="F119" s="9">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="G119" s="9">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="H119" s="9">
-        <v>46000</v>
+        <v>82000</v>
       </c>
       <c r="I119" s="9">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -5293,19 +5293,19 @@
         <v>0</v>
       </c>
       <c r="E120" s="9">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="F120" s="9">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="G120" s="9">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="H120" s="9">
-        <v>47000</v>
+        <v>82000</v>
       </c>
       <c r="I120" s="9">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
@@ -5324,19 +5324,19 @@
         <v>0</v>
       </c>
       <c r="E121" s="9">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="F121" s="9">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="G121" s="9">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="H121" s="9">
-        <v>50000</v>
+        <v>85000</v>
       </c>
       <c r="I121" s="9">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -5355,19 +5355,19 @@
         <v>0</v>
       </c>
       <c r="E122" s="9">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="F122" s="9">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="G122" s="9">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="H122" s="9">
-        <v>52000</v>
+        <v>87000</v>
       </c>
       <c r="I122" s="9">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
@@ -5386,19 +5386,19 @@
         <v>0</v>
       </c>
       <c r="E123" s="9">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="F123" s="9">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="G123" s="9">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="H123" s="9">
-        <v>58000</v>
+        <v>99000</v>
       </c>
       <c r="I123" s="9">
-        <v>64000</v>
+        <v>0</v>
       </c>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -5417,32 +5417,32 @@
         <v>0</v>
       </c>
       <c r="E124" s="9">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="F124" s="9">
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="G124" s="9">
-        <v>43000</v>
+        <v>48000</v>
       </c>
       <c r="H124" s="9">
-        <v>61000</v>
+        <v>102000</v>
       </c>
       <c r="I124" s="9">
-        <v>67000</v>
+        <v>0</v>
       </c>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B125" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D125" s="7">
         <v>99</v>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="J125" s="6"/>
       <c r="K125" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="J126" s="6"/>
       <c r="K126" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="J127" s="6"/>
       <c r="K127" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -5538,7 +5538,7 @@
         <v>36</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>6</v>
@@ -5569,7 +5569,7 @@
         <v>36</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -5600,7 +5600,7 @@
         <v>173</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>6</v>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="J130" s="6"/>
       <c r="K130" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="J131" s="6"/>
       <c r="K131" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="J134" s="6"/>
       <c r="K134" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J135" s="6"/>
       <c r="K135" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="J136" s="6"/>
       <c r="K136" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="J137" s="6"/>
       <c r="K137" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="J138" s="6"/>
       <c r="K138" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -5937,23 +5937,23 @@
         <v>99</v>
       </c>
       <c r="E140" s="8">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="F140" s="8">
-        <v>35500</v>
+        <v>40000</v>
       </c>
       <c r="G140" s="8">
-        <v>40500</v>
+        <v>44000</v>
       </c>
       <c r="H140" s="8">
-        <v>63000</v>
+        <v>71000</v>
       </c>
       <c r="I140" s="8">
-        <v>70500</v>
+        <v>81000</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="J141" s="6"/>
       <c r="K141" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="J142" s="6"/>
       <c r="K142" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="J145" s="6"/>
       <c r="K145" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="J146" s="6"/>
       <c r="K146" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>205</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="J151" s="6"/>
       <c r="K151" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="J152" s="6"/>
       <c r="K152" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
